--- a/helloworld.xlsx
+++ b/helloworld.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>col</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>raton</t>
+  </si>
+  <si>
+    <t>Valores</t>
   </si>
 </sst>
 </file>
@@ -399,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -417,8 +420,11 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -428,8 +434,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -439,8 +448,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5">
+        <v>343</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -450,8 +462,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -460,6 +475,9 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/helloworld.xlsx
+++ b/helloworld.xlsx
@@ -76,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +409,7 @@
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,46 +426,46 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
